--- a/datafile.xlsx
+++ b/datafile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,77 +434,5810 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>league</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>home_score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>away_score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'league': 'Premier League Cup', 'team': 'Birmingham U21', 'home': 'Crystal Palace U21', 'away': 'Birmingham U21', 'home_score': '3', 'away_score': '0', 'status': 'L'}</t>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Forest</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'league': 'Professional Development League', 'team': 'Birmingham U21', 'home': 'Birmingham U21', 'away': 'Crewe U21', 'home_score': '', 'away_score': '', 'status': '?'}</t>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'league': 'Professional Development League', 'team': 'Birmingham U21', 'home': 'Burnley U21', 'away': 'Birmingham U21', 'home_score': '2', 'away_score': '1', 'status': 'L'}</t>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{'league': 'Premier League Cup', 'team': 'Birmingham U21', 'home': 'Birmingham U21', 'away': 'Middlesbrough U21', 'home_score': '0', 'away_score': '4', 'status': 'L'}</t>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{'league': 'Professional Development League', 'team': 'Birmingham U21', 'home': '', 'away': 'Fleetwood Town Reserve U21', 'home_score': '1', 'away_score': '1', 'status': 'D'}</t>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{'league': 'Professional Development League', 'team': 'Birmingham U21', 'home': 'Coventry U21', 'away': 'Birmingham U21', 'home_score': '1', 'away_score': '1', 'status': 'D'}</t>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{'league': 'Professional Development League', 'team': 'Birmingham U21', 'home': 'Sheffield Utd U21', 'away': 'Birmingham U21', 'home_score': '2', 'away_score': '0', 'status': 'L'}</t>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{'league': 'Professional Development League', 'team': 'Birmingham U21', 'home': 'Birmingham U21', 'away': 'Barnsley U21', 'home_score': '', 'away_score': '', 'status': '?'}</t>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{'league': 'Professional Development League', 'team': 'Birmingham U21', 'home': 'Birmingham U21', 'away': 'Barnsley U21', 'home_score': '', 'away_score': '', 'status': '?'}</t>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>?</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{'league': 'Professional Development League', 'team': 'Birmingham U21', 'home': 'Birmingham U21', 'away': 'Barnsley U21', 'home_score': 'N/A', 'away_score': 'N/A', 'status': '?'}</t>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Liga Portugal Betclic</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Liga Portugal Betclic</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Liga Portugal Betclic</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Liga Portugal Betclic</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Taça de Portugal</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Liga Portugal Betclic</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Liga Portugal Betclic</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Liga Portugal Betclic</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MLS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MLS Preseason</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>St. Louis</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MLS Preseason</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MLS Preseason</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Salt Lake</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MLS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MLS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CONCACAF Champions Cup</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MLS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CONCACAF Champions Cup</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MLS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NY Red Bulls</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MLS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MLS Preseason</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Leones Negros</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MLS Preseason</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CONCACAF Champions Cup</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>St. Louis</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MLS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Kansas City</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CONCACAF Champions Cup</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>St. Louis</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MLS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NY Red Bulls</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CONCACAF Champions Cup</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CONCACAF Champions Cup</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MLS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Copa do Nordeste</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Treze</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Alagoano</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Cruzeiro-AL</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Copa do Brasil</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Rio Branco-AC</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Alagoano</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CR Brasil AL</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Copa do Nordeste</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Alagoano</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>ASA</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Copa do Nordeste</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CR Brasil AL</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Alagoano</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Murici</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Copa do Brasil</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Alagoano</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Murici</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Atlético-MG</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Athletic Club Sjdr MG</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Pouso Alegre</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Uberlândia</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Copa do Brasil</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Athletic Club Sjdr MG</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Itabirito</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Athletic Club Sjdr MG</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Copa do Brasil</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Uberlândia</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>RS Berkane</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Renaissance Zemamra</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>CAF Champions League</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Galaxy FC</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CAF Champions League</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Wydad AC</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Mimosas</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Oujda</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Renaissance Zemamra</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Wydad AC</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Union Touarga</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Youssoufia Berrechid</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>JS Soualem</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>RS Berkane</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Youssoufia Berrechid</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Union Touarga</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>AS FAR</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>MAS</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>2</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>WAC</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>HUSA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Division Profesional</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Univ. de Vinto</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CONMEBOL Libertadores</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Sporting Cristalx2</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>6</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Division Profesional</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Division Profesional</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GV San José</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CONMEBOL Libertadores</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Division Profesional</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CONMEBOL Libertadores</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Division Profesional</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>GV San José</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Division Profesional</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>CONMEBOL Libertadores</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Division Profesional</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Wilstermann</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Division Profesional</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Nacional Potosí</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>6</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Division Profesional</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Univ. de Vinto</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Division Profesional</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Guabira Montero</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Division Profesional</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Division Profesional</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Univ. de Vinto</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Division Profesional</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Real Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Division Profesional</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>3</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Division Profesional</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Guabira Montero</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Division Profesional</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Maracanã</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Floresta</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Atlético-CE</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Horizonte</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Atlético-CE</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>3</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Barbalha FC CE</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Atlético-CEx2</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Horizonte</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Ferroviário</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Ferroviário</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Horizonte</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Atlético-CE</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>2</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Horizonte</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Horizonte</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Barbalha</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Atlético-CE</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Goiano</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Goiano</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Jataiense</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Goiano</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Goianésia</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Goiano</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Morrinhos</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>3</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Goiano</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Vila Nova FC GO</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Goiânia</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Goiano</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Iporá</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Goiano</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Goianésia</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Goiano</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Goianésia</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Copa Verde</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Goiano</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Aparecidense</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Capixaba</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Jaguaré</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>2</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Capixaba</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Rio Branco (VN)</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Capixaba</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Estrela do Norte</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Capixaba</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Vitória-ES</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Capixaba</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Rio Branco AC ES</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Copa Verde</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Real Noroeste</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Capixaba</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Real Noroeste</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Capixaba</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Nova Venécia</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Copa Verde</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Capixaba</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Rio Branco</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Nova Venécia</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Mineiro, Feminino</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Mineiro, Feminino</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Funorte</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Mineiro, Feminino</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>América-MG</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Mineiro, Feminino</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Atlético-MG</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Mineiro, Feminino</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Brasileiro A3, Women</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Criciúma</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Brasileiro A3, Women</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Brasileiro A3, Women</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Gurias do Yucumã</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Brasileiro A3, Women</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Gurias do Yucumã</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Itabirito</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Atlético-MG</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Uberlândia</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Pouso Alegre</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Ipatinga</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>EC Democrata MG</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Villa Nova</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Ipatinga</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Mineiro Módulo I</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Democrata (GV)</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Patrocinense</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Carioca</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Madureira</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Carioca</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Carioca</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Audax</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Carioca</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>AA Portuguesa RJ</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Copa do Brasil</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Audax</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Carioca</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Carioca</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>4</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Carioca</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>AA Portuguesa RJ</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Copa do Brasil</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Carioca</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Mato-Grossense</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Mixto</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Mato-Grossense</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>União Rondonópolis</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Mato-Grossense</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Araguaia</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Mato-Grossense</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Araguaia</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Mato-Grossense</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Academia</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Copa do Brasil</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Real Noroeste</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Mato-Grossense</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Cuiaba Esporte Clube MT</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Nova Mutum</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Copa Verde</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Porto Velho</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Copa do Brasil</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Portuguesa-RJ</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Mato-Grossense</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Luverdense</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
     </row>

--- a/datafile.xlsx
+++ b/datafile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G166"/>
+  <dimension ref="A1:G338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5831,10 +5831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F159" t="n">
+        <v>2</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5868,10 +5866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F160" t="n">
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5905,10 +5901,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F161" t="n">
+        <v>2</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5942,10 +5936,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F162" t="n">
+        <v>3</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5979,10 +5971,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F163" t="n">
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -6016,10 +6006,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F164" t="n">
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -6053,10 +6041,8 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F165" t="n">
+        <v>1</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -6090,14 +6076,6022 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oakleigh Cannons </t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>W</t>
+      <c r="F167" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oakleigh Cannons </t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Altona</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oakleigh Cannons </t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Dandenong City</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oakleigh Cannons </t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Altona</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oakleigh Cannons </t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Green Gully</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oakleigh Cannons </t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>South Melbourne</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oakleigh Cannons </t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Port Melbourne</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oakleigh Cannons </t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Dandenong</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Port Melbourne Sharks</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Port Melbourne</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>St Albans</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Port Melbourne Sharks</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Melbourne Knights</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Port Melbourne</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>3</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Port Melbourne Sharks</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Port Melbourne</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Moreland City</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Port Melbourne Sharks</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Hume City</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Port Melbourne</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Port Melbourne Sharks</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Port Melbourne</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Manningham Utd</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Port Melbourne Sharks</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Port Melbourne</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>2</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Port Melbourne Sharks</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Port Melbourne</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Altona</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Port Melbourne Sharks</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Port Melbourne</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dandenong City SC </t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Avondale</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Dandenong City</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>3</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dandenong City SC </t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Dandenong City</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Altona</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>2</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dandenong City SC </t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>St Albans</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Dandenong City</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>3</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dandenong City SC </t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Dandenong City</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dandenong City SC </t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Melbourne Knights</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Dandenong City</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>2</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dandenong City SC </t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Dandenong City</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Dandenong</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>2</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dandenong City SC </t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Moreland City</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Dandenong City</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>2</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dandenong City SC </t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Preston Lions FC</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Dandenong City</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Green Gully Cavaliers</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>St Albans</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Green Gully</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>2</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Green Gully Cavaliers</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Green Gully</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Moreland City</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Green Gully Cavaliers</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Hume City</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Green Gully</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Green Gully Cavaliers</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Green Gully</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Manningham Utd</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Green Gully Cavaliers</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Green Gully</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Green Gully Cavaliers</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Green Gully</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Altona</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>4</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Green Gully Cavaliers</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Green Gully</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Green Gully Cavaliers</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Green Gully</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Dandenong</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monaro Panthers FC </t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Monaro</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Cooma</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monaro Panthers FC </t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Monaro</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Gungahlin</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monaro Panthers FC </t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>West Canberra</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Monaro</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>3</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monaro Panthers FC </t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Monaro</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Gungahlin</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>2</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monaro Panthers FC </t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Monaro</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>O'Connor</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>2</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monaro Panthers FC </t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Canberra FC</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Monaro</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monaro Panthers FC </t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Monaro</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>1</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monaro Panthers FC </t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Monaro</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Tuggeranong</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>2</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>West Canberra</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>3</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>O'Connor</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>2</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Gungahlin</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>3</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Tuggeranong</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Cooma</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Monaro</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>1</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Canberra FC</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>1</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Canberra FC</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strogino Moscow </t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Strogino</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Ryazan</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strogino Moscow </t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Dinamo Vlad.</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Strogino</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strogino Moscow </t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Strogino</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Kvant Obninsk</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strogino Moscow </t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Strogino</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Sakhalinets Moscow</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>2</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strogino Moscow </t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Arsenal-2 Tula</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Strogino</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>2</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strogino Moscow </t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Chertanovo</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Strogino</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strogino Moscow </t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Strogino</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Chertanovo</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>4</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strogino Moscow </t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Strogino</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Arsenal Tula</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Baltika Kaliningrad</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Baltika</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Rotor</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>2</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Baltika Kaliningrad</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Baltika</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Dynamo</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Baltika Kaliningrad</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Baltika</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Sochi</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Baltika Kaliningrad</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Orenburg</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Baltika</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Baltika Kaliningrad</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Lokomotiv</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Baltika</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Baltika Kaliningrad</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Lokomotiv</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Baltika</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Baltika Kaliningrad</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Baltika</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Pari NN</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Baltika Kaliningrad</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Baltika</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>CSKA</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>1</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daejeon Korail FC </t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Daejeon Korail</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Mokpo City</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daejeon Korail FC </t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Gimhae City</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Daejeon Korail</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daejeon Korail FC </t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Daejeon Korail</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Gangneung City</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daejeon Korail FC </t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Daejeon Korail</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Dangjin Citizen</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>1</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daejeon Korail FC </t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Changwon City</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Daejeon Korail</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>1</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daejeon Korail FC </t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Daejeon Korail</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Seoul E-Land FC</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>1</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daejeon Korail FC </t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Daejeon Korail</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Hwaseong FC</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>1</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daejeon Korail FC </t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Daejeon Korail</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Gimhae City</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>1</v>
+      </c>
+      <c r="G238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gimhae FC</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Gangneung City</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Gimhae City</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>5</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gimhae FC</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Chuncheon</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Gimhae City</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>3</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gimhae FC</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Gimhae City</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Daejeon Korail</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gimhae FC</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Gimhae City</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Changwon City</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>1</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gimhae FC</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Hwaseong FC</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Gimhae City</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>1</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gimhae FC</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Pyeongtaek Citizen FC</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Gimhae City</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>5</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gimhae FC</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Daegu FC II</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Gimhae City</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>3</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gimhae FC</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Daejeon Korail</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Gimhae City</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>1</v>
+      </c>
+      <c r="G246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yanbian Longding </t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Yanbian Longding</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yanbian Longding </t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Yanbian Longding</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Guangzhou</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yanbian Longding </t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Yanbian Longding</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Jiading</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yanbian Longding </t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Yanbian Longding</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yanbian Longding </t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Suzhou</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Yanbian Longding</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>1</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yanbian Longding </t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Wugo</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Yanbian Longding</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yanbian Longding </t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Nanjing</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Yanbian Longding</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yanbian Longding </t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Jiading</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Yanbian Longding</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Red Lions</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Dalian Young Boy</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>1</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Red Lions</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Foshan Nanshi FC </t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Foshan Nanshi FC</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Foshan Nanshi FC </t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Red Lions</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Foshan Nanshi FC</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>0</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Foshan Nanshi FC </t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Foshan Nanshi FC</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Guangzhou</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>1</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Foshan Nanshi FC </t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Suzhou</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Foshan Nanshi FC</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dalian Young Boy FC</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Jiangxi Dark Horse</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Dalian Young Boy</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>2</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dalian Young Boy FC</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Dalian Young Boy</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>1</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dalian Young Boy FC</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Guangxi Lanhang</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Dalian Young Boy</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>1</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dalian Young Boy FC</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Dalian Young Boy</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>0</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dalian Young Boy FC</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Red Lions</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Dalian Young Boy</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>1</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dalian Young Boy FC</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Suzhou</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Dalian Young Boy</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>1</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dalian Young Boy FC</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Dalian Young Boy</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dalian Young Boy FC</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Dalian Young Boy</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>0</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jiangxi Beidamen </t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Jiading</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>2</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jiangxi Beidamen </t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Suzhou</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>1</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jiangxi Beidamen </t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>1</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jiangxi Beidamen </t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>1</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jiangxi Beidamen </t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>0</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jiangxi Beidamen </t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Jiading</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>0</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jiangxi Beidamen </t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>SJZ Gongfu</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>2</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jiangxi Beidamen </t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F282" t="n">
+        <v>0</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Red Lions</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>0</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Dalian Young Boy</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>1</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>3</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>1</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Foshan Nanshi FC</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>0</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Nanjing</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F288" t="n">
+        <v>1</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Heilongjiang</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>0</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Guangzhou</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>5</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phu Tho FC </t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Phú Thọ FC</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>PVF-CAND</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>1</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phu Tho FC </t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Đồng Nai</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Phú Thọ FC</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>0</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phu Tho FC </t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Phú Thọ FC</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Hoà Bình</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>0</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phu Tho FC </t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Phú Thọ FC</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Đồng Tháp</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>2</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phu Tho FC </t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Phù Đổng Ninh Bình</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Phú Thọ FC</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>1</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phu Tho FC </t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Phú Thọ FCx2</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Hoà Bình</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phu Tho FC </t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Phú Thọ FC</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Đồng Nai</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>0</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phu Tho FC </t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Đồng Tháp</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Phú Thọ FC</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>0</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Phu Dong FC</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Đồng Tháp</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Phù Đổng Ninh Bình</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F299" t="n">
+        <v>0</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Phu Dong FC</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Phù Đổng Ninh Bình</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Đồng Nai</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F300" t="n">
+        <v>0</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Phu Dong FC</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Hoà Bình</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Phù Đổng Ninh Bình</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>2</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Phu Dong FC</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Phù Đổng Ninh Bình</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>PVF-CAND</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F302" t="n">
+        <v>0</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Phu Dong FC</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Phù Đổng Ninh Bình</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Phú Thọ FC</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F303" t="n">
+        <v>1</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Phu Dong FC</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Phù Đổng Ninh Bình</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F304" t="n">
+        <v>0</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Phu Dong FC</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Thanh Hóa</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Phù Đổng Ninh Bình</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F305" t="n">
+        <v>0</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Phu Dong FC</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>PVF-CAND</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Phù Đổng Ninh Bình</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F306" t="n">
+        <v>1</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salisbury Inter </t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Salisbury Inter</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Fulham Utd.</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F307" t="n">
+        <v>0</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salisbury Inter </t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>West Torrens Birkalla</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Salisbury Inter</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F308" t="n">
+        <v>4</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salisbury Inter </t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Salisbury Inter</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Adelaide Comets</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F309" t="n">
+        <v>1</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salisbury Inter </t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>FFSA NTC Girls</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Salisbury Inter</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F310" t="n">
+        <v>1</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salisbury Inter </t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Adelaide Comets</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Salisbury Inter</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F311" t="n">
+        <v>2</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salisbury Inter </t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Salisbury Inter</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>FFSA NTC Girls</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F312" t="n">
+        <v>2</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salisbury Inter </t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Salisbury Inter</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>FFSA NTC Girls</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F313" t="n">
+        <v>1</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salisbury Inter </t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Adelaide Comets</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Salisbury Inter</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F314" t="n">
+        <v>2</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide City</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Adelaide City</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Campbelltown</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F315" t="n">
+        <v>2</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide City</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Croydon</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Adelaide City</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F316" t="n">
+        <v>0</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide City</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Adelaide City</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Modbury</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F317" t="n">
+        <v>2</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide City</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Adelaide City</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>South Adelaide</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F318" t="n">
+        <v>0</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide City</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Para Hills</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Adelaide City</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F319" t="n">
+        <v>3</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide City</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Adelaide Comets</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Adelaide City</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F320" t="n">
+        <v>0</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide City</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Adelaide City</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>White City</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F321" t="n">
+        <v>1</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide City</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Raiders</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Adelaide City</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F322" t="n">
+        <v>0</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Box Hill United </t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Box Hill Utd</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>South Melbourne FC</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F323" t="n">
+        <v>1</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Box Hill United </t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>FC Bulleen Lions</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Box Hill Utd</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F324" t="n">
+        <v>0</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Box Hill United </t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Box Hill Utd</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Bayside United</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F325" t="n">
+        <v>1</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Box Hill United </t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Box Hill Utd</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Alamein United FC</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F326" t="n">
+        <v>2</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Box Hill United </t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Preston Lions</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Box Hill Utd</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F327" t="n">
+        <v>5</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Box Hill United </t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Box Hill Utd</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Moreland Zebras</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F328" t="n">
+        <v>2</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Box Hill United </t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Bentleigh Greens SC</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Box Hill Utd</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F329" t="n">
+        <v>0</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Box Hill United </t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Box Hill Utd</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Preston Lions</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F330" t="n">
+        <v>1</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alamein FC</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Alamein United FC</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>South Melbourne FC</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alamein FC</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Alamein United FC</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>FC Bulleen Lions</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alamein FC</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Bayside United</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Alamein United FC</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alamein FC</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Alamein United FC</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Heidelberg United SC</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alamein FC</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Box Hill Utd</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Alamein United FC</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alamein FC</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Heidelberg United SC</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Alamein United FC</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alamein FC</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Boroondara Eagles</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Alamein United FC</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alamein FC</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>South Melbourne FC</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Alamein United FC</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>

--- a/datafile.xlsx
+++ b/datafile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G784"/>
+  <dimension ref="A1:G955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27299,10 +27299,8 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F777" t="n">
+        <v>3</v>
       </c>
       <c r="G777" t="inlineStr">
         <is>
@@ -27336,10 +27334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F778" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F778" t="n">
+        <v>1</v>
       </c>
       <c r="G778" t="inlineStr">
         <is>
@@ -27373,10 +27369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F779" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F779" t="n">
+        <v>1</v>
       </c>
       <c r="G779" t="inlineStr">
         <is>
@@ -27410,10 +27404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F780" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F780" t="n">
+        <v>0</v>
       </c>
       <c r="G780" t="inlineStr">
         <is>
@@ -27447,10 +27439,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="F781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F781" t="n">
+        <v>3</v>
       </c>
       <c r="G781" t="inlineStr">
         <is>
@@ -27484,10 +27474,8 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F782" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F782" t="n">
+        <v>0</v>
       </c>
       <c r="G782" t="inlineStr">
         <is>
@@ -27521,10 +27509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F783" t="n">
+        <v>2</v>
       </c>
       <c r="G783" t="inlineStr">
         <is>
@@ -27558,16 +27544,5971 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F784" t="inlineStr">
+      <c r="F784" t="n">
+        <v>0</v>
+      </c>
+      <c r="G784" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carabobo FC </t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>Angostura FC</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F785" t="n">
+        <v>1</v>
+      </c>
+      <c r="G785" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carabobo FC </t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>Metropolitanos</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F786" t="n">
+        <v>1</v>
+      </c>
+      <c r="G786" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carabobo FC </t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>Metropolitanos</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F787" t="n">
+        <v>1</v>
+      </c>
+      <c r="G787" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carabobo FC </t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>UCV FC</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G784" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="F788" t="n">
+        <v>1</v>
+      </c>
+      <c r="G788" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carabobo FC </t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>Zamora</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F789" t="n">
+        <v>1</v>
+      </c>
+      <c r="G789" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carabobo FC </t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>La Guaira</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F790" t="n">
+        <v>0</v>
+      </c>
+      <c r="G790" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carabobo FC </t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>Estudiantes de Mérida</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F791" t="n">
+        <v>0</v>
+      </c>
+      <c r="G791" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carabobo FC </t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>Portuguesa</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F792" t="n">
+        <v>0</v>
+      </c>
+      <c r="G792" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>Puerto Cabello</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F793" t="n">
+        <v>1</v>
+      </c>
+      <c r="G793" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>La Guaira</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F794" t="n">
+        <v>0</v>
+      </c>
+      <c r="G794" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>Angostura FC</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F795" t="n">
+        <v>3</v>
+      </c>
+      <c r="G795" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F796" t="n">
+        <v>1</v>
+      </c>
+      <c r="G796" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>Inter de Barinas</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F797" t="n">
+        <v>1</v>
+      </c>
+      <c r="G797" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>Metropolitanos</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F798" t="n">
+        <v>0</v>
+      </c>
+      <c r="G798" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>UCV FC</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F799" t="n">
+        <v>2</v>
+      </c>
+      <c r="G799" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F800" t="n">
+        <v>2</v>
+      </c>
+      <c r="G800" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richmond Kickers </t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>Richmond Kickers</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>Greenville Triumph</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F801" t="n">
+        <v>2</v>
+      </c>
+      <c r="G801" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richmond Kickers </t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>Richmond Kickers</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>Tormenta FC</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F802" t="n">
+        <v>1</v>
+      </c>
+      <c r="G802" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richmond Kickers </t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>ONE Knoxville</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>Richmond Kickers</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F803" t="n">
+        <v>2</v>
+      </c>
+      <c r="G803" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richmond Kickers </t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>Richmond Kickers</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>CV Fuego</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F804" t="n">
+        <v>5</v>
+      </c>
+      <c r="G804" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richmond Kickers </t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>Spokane Velocity</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>Richmond Kickers</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F805" t="n">
+        <v>1</v>
+      </c>
+      <c r="G805" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richmond Kickers </t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>Richmond Kickers</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>Christos FC</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F806" t="n">
+        <v>0</v>
+      </c>
+      <c r="G806" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richmond Kickers </t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>Richmond Kickers</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>Tormenta FC</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F807" t="n">
+        <v>3</v>
+      </c>
+      <c r="G807" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richmond Kickers </t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>Richmond Kickers</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>Maryland Bobcats FC</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F808" t="n">
+        <v>2</v>
+      </c>
+      <c r="G808" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sportivo Trinidense </t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>El Nacional</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>Trinidense</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F809" t="n">
+        <v>1</v>
+      </c>
+      <c r="G809" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sportivo Trinidense </t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>General Caballero</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>Trinidense</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F810" t="n">
+        <v>2</v>
+      </c>
+      <c r="G810" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sportivo Trinidense </t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>Trinidense</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>Colo-Colo</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F811" t="n">
+        <v>1</v>
+      </c>
+      <c r="G811" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sportivo Trinidense </t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>Trinidense</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F812" t="n">
+        <v>1</v>
+      </c>
+      <c r="G812" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sportivo Trinidense </t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>Colo-Colo</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>Trinidense</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F813" t="n">
+        <v>1</v>
+      </c>
+      <c r="G813" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sportivo Trinidense </t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>Trinidense</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F814" t="n">
+        <v>2</v>
+      </c>
+      <c r="G814" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sportivo Trinidense </t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>Trinidense</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F815" t="n">
+        <v>1</v>
+      </c>
+      <c r="G815" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sportivo Trinidense </t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>Trinidense</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F816" t="n">
+        <v>2</v>
+      </c>
+      <c r="G816" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F817" t="n">
+        <v>1</v>
+      </c>
+      <c r="G817" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F818" t="n">
+        <v>1</v>
+      </c>
+      <c r="G818" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>Sol de América</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F819" t="n">
+        <v>0</v>
+      </c>
+      <c r="G819" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F820" t="n">
+        <v>1</v>
+      </c>
+      <c r="G820" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F821" t="n">
+        <v>1</v>
+      </c>
+      <c r="G821" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F822" t="n">
+        <v>1</v>
+      </c>
+      <c r="G822" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F823" t="n">
+        <v>0</v>
+      </c>
+      <c r="G823" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>Colo-Colo</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F824" t="n">
+        <v>0</v>
+      </c>
+      <c r="G824" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Universitario de Vinto </t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>Bolívar</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>Univ. de Vinto</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F825" t="n">
+        <v>2</v>
+      </c>
+      <c r="G825" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Universitario de Vinto </t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>Univ. de Vinto</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F826" t="n">
+        <v>1</v>
+      </c>
+      <c r="G826" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Universitario de Vinto </t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>Univ. de Vinto</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F827" t="n">
+        <v>0</v>
+      </c>
+      <c r="G827" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Universitario de Vinto </t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>Univ. de Vinto</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F828" t="n">
+        <v>0</v>
+      </c>
+      <c r="G828" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Universitario de Vinto </t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>Univ. de Vinto</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F829" t="n">
+        <v>1</v>
+      </c>
+      <c r="G829" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Universitario de Vinto </t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>Univ. de Vinto</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>Nacional Potosí</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F830" t="n">
+        <v>2</v>
+      </c>
+      <c r="G830" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Universitario de Vinto </t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>Univ. de Vinto</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F831" t="n">
+        <v>0</v>
+      </c>
+      <c r="G831" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Universitario de Vinto </t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>Univ. de Vinto</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F832" t="n">
+        <v>0</v>
+      </c>
+      <c r="G832" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Universitario de Vinto </t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>Univ. de Vinto</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F833" t="n">
+        <v>1</v>
+      </c>
+      <c r="G833" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Always Ready</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F834" t="n">
+        <v>1</v>
+      </c>
+      <c r="G834" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Always Ready</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F835" t="n">
+        <v>0</v>
+      </c>
+      <c r="G835" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Always Ready</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>GV San José</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F836" t="n">
+        <v>1</v>
+      </c>
+      <c r="G836" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Always Ready</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F837" t="n">
+        <v>0</v>
+      </c>
+      <c r="G837" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Always Ready</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F838" t="n">
+        <v>1</v>
+      </c>
+      <c r="G838" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Always Ready</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>GV San José</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F839" t="n">
+        <v>0</v>
+      </c>
+      <c r="G839" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Always Ready</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F840" t="n">
+        <v>1</v>
+      </c>
+      <c r="G840" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Always Ready</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>Ind. Medellín</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F841" t="n">
+        <v>0</v>
+      </c>
+      <c r="G841" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uniao Araguainense TO </t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>Gurupi</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>União-TO</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F842" t="n">
+        <v>1</v>
+      </c>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uniao Araguainense TO </t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>União-TO</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>Batalhão</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F843" t="n">
+        <v>0</v>
+      </c>
+      <c r="G843" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uniao Araguainense TO </t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>União-TO</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>Araguaína</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F844" t="n">
+        <v>0</v>
+      </c>
+      <c r="G844" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uniao Araguainense TO </t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>Capital-TO</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>União-TO</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr"/>
+      <c r="F845" t="inlineStr"/>
+      <c r="G845" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uniao Araguainense TO </t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>União-TO</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>Tocantinópolis</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F846" t="n">
+        <v>0</v>
+      </c>
+      <c r="G846" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uniao Araguainense TO </t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>Capital-TO</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>União-TO</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F847" t="n">
+        <v>4</v>
+      </c>
+      <c r="G847" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uniao Araguainense TO </t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>Araguaína</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>União-TO</t>
+        </is>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F848" t="n">
+        <v>1</v>
+      </c>
+      <c r="G848" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uniao Araguainense TO </t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>União-TO</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>Araguaína</t>
+        </is>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F849" t="n">
+        <v>1</v>
+      </c>
+      <c r="G849" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uniao Araguainense TO </t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>Tocantinópolis</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>União-TO</t>
+        </is>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F850" t="n">
+        <v>2</v>
+      </c>
+      <c r="G850" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tocantinopolis EC TO</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>Tocantinópolis</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>Manauara</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F851" t="n">
+        <v>1</v>
+      </c>
+      <c r="G851" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tocantinopolis EC TO</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>União-TO</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>Tocantinópolis</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F852" t="n">
+        <v>0</v>
+      </c>
+      <c r="G852" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tocantinopolis EC TO</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>Manaus</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>Tocantinópolis</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F853" t="n">
+        <v>2</v>
+      </c>
+      <c r="G853" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tocantinopolis EC TO</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>Tocantinópolis</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>Tocantins</t>
+        </is>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F854" t="n">
+        <v>0</v>
+      </c>
+      <c r="G854" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tocantinopolis EC TO</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>Capital-TO</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>Tocantinópolis</t>
+        </is>
+      </c>
+      <c r="E855" t="inlineStr"/>
+      <c r="F855" t="inlineStr"/>
+      <c r="G855" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tocantinopolis EC TO</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>Capital-TO</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>Tocantinópolis</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F856" t="n">
+        <v>3</v>
+      </c>
+      <c r="G856" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tocantinopolis EC TO</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>Tocantinópolis</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>Capital-TO</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F857" t="n">
+        <v>0</v>
+      </c>
+      <c r="G857" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tocantinopolis EC TO</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>Tocantinópolis</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>União-TO</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F858" t="n">
+        <v>2</v>
+      </c>
+      <c r="G858" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Horquetta Rangers FC </t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>Club Sando Moruga</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F859" t="n">
+        <v>0</v>
+      </c>
+      <c r="G859" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Horquetta Rangers FC </t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>Point Fortin FC</t>
+        </is>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F860" t="n">
+        <v>0</v>
+      </c>
+      <c r="G860" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Horquetta Rangers FC </t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>Caledonia</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F861" t="n">
+        <v>2</v>
+      </c>
+      <c r="G861" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Horquetta Rangers FC </t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>AC Port Of Spain</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr"/>
+      <c r="F862" t="inlineStr"/>
+      <c r="G862" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Horquetta Rangers FC </t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>AC Port Of Spain</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F863" t="n">
+        <v>3</v>
+      </c>
+      <c r="G863" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Horquetta Rangers FC </t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>FC Phoenix 1976</t>
+        </is>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F864" t="n">
+        <v>2</v>
+      </c>
+      <c r="G864" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Horquetta Rangers FC </t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>Central FC</t>
+        </is>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F865" t="n">
+        <v>4</v>
+      </c>
+      <c r="G865" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Horquetta Rangers FC </t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>Eagles FC</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F866" t="n">
+        <v>3</v>
+      </c>
+      <c r="G866" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Defence Force FC</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>FC Phoenix 1976</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>Defence Force FC</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F867" t="n">
+        <v>0</v>
+      </c>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Defence Force FC</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>Defence Force FC</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>Police FC</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F868" t="n">
+        <v>1</v>
+      </c>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Defence Force FC</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>Defence Force FC</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>Prisons FC</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr"/>
+      <c r="F869" t="inlineStr"/>
+      <c r="G869" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Defence Force FC</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>Defence Force FC</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>Prisons FC</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F870" t="n">
+        <v>1</v>
+      </c>
+      <c r="G870" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Defence Force FC</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>Club Sando Moruga</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>Defence Force FC</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F871" t="n">
+        <v>1</v>
+      </c>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Defence Force FC</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>Defence Force FC</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>Point Fortin FC</t>
+        </is>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F872" t="n">
+        <v>4</v>
+      </c>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Defence Force FC</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>Caledonia</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>Defence Force FC</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F873" t="n">
+        <v>1</v>
+      </c>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Defence Force FC</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>Defence Force FC</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>AC Port Of Spain</t>
+        </is>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F874" t="n">
+        <v>0</v>
+      </c>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Atletico Pantoja </t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>Pantoja</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>Harbour View</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F875" t="n">
+        <v>1</v>
+      </c>
+      <c r="G875" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Atletico Pantoja </t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>Pantoja</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>Moca</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F876" t="n">
+        <v>1</v>
+      </c>
+      <c r="G876" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Atletico Pantoja </t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>Pantoja</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>Moca</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F877" t="n">
+        <v>0</v>
+      </c>
+      <c r="G877" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Atletico Pantoja </t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>Robinhood</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>Pantoja</t>
+        </is>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F878" t="n">
+        <v>1</v>
+      </c>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Atletico Pantoja </t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>Moca</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>Pantoja</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F879" t="n">
+        <v>1</v>
+      </c>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Atletico Pantoja </t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>Pantoja</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>Atl. Vega Real</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F880" t="n">
+        <v>1</v>
+      </c>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Atletico Pantoja </t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>Pantoja</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>Moca</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F881" t="n">
+        <v>2</v>
+      </c>
+      <c r="G881" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Atletico Pantoja </t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>Cibao</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>Pantoja</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F882" t="n">
+        <v>2</v>
+      </c>
+      <c r="G882" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atlántico FC</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>Atlántico</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>Pantoja</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F883" t="n">
+        <v>5</v>
+      </c>
+      <c r="G883" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atlántico FC</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>Atlántico</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>Cibao</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F884" t="n">
+        <v>1</v>
+      </c>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atlántico FC</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>Atlántico</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>Atl. Vega Real</t>
+        </is>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F885" t="n">
+        <v>0</v>
+      </c>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atlántico FC</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>Atlántico</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>Cibao</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F886" t="n">
+        <v>3</v>
+      </c>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atlántico FC</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>Cibao</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>Atlántico</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F887" t="n">
+        <v>0</v>
+      </c>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atlántico FC</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>Atlántico</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>Atl. San Cristóbal</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F888" t="n">
+        <v>0</v>
+      </c>
+      <c r="G888" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atlántico FC</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>Delfines del Este</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>Atlántico</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F889" t="n">
+        <v>0</v>
+      </c>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atlántico FC</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>Atlántico</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>Universidad O&amp;M</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F890" t="n">
+        <v>2</v>
+      </c>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vega Real </t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>Atl. Vega Real</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>Universidad O&amp;M</t>
+        </is>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F891" t="n">
+        <v>3</v>
+      </c>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vega Real </t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>Pantoja</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>Atl. Vega Real</t>
+        </is>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F892" t="n">
+        <v>1</v>
+      </c>
+      <c r="G892" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vega Real </t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>Atl. Vega Real</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>Cibao</t>
+        </is>
+      </c>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F893" t="n">
+        <v>0</v>
+      </c>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vega Real </t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>Atl. Vega Real</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>Moca</t>
+        </is>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F894" t="n">
+        <v>1</v>
+      </c>
+      <c r="G894" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vega Real </t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>Atlántico</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>Atl. Vega Real</t>
+        </is>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F895" t="n">
+        <v>0</v>
+      </c>
+      <c r="G895" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vega Real </t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>Pantoja</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>Atl. Vega Real</t>
+        </is>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F896" t="n">
+        <v>1</v>
+      </c>
+      <c r="G896" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vega Real </t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>Atl. Vega Real</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>Atl. San Cristóbal</t>
+        </is>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F897" t="n">
+        <v>0</v>
+      </c>
+      <c r="G897" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vega Real </t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>Moca</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>Atl. Vega Real</t>
+        </is>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F898" t="n">
+        <v>0</v>
+      </c>
+      <c r="G898" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delfines Del Este</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>Atl. San Cristóbal</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>Delfines del Este</t>
+        </is>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F899" t="n">
+        <v>2</v>
+      </c>
+      <c r="G899" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delfines Del Este</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>Delfines del Este</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>Atl. Vega Real</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F900" t="n">
+        <v>2</v>
+      </c>
+      <c r="G900" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delfines Del Este</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>Pantoja</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>Delfines del Este</t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F901" t="n">
+        <v>0</v>
+      </c>
+      <c r="G901" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delfines Del Este</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>Delfines del Este</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>Jarabacoa FC</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F902" t="n">
+        <v>1</v>
+      </c>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delfines Del Este</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>Universidad O&amp;M</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>Delfines del Este</t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F903" t="n">
+        <v>1</v>
+      </c>
+      <c r="G903" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delfines Del Este</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>Cibao</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>Delfines del Este</t>
+        </is>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F904" t="n">
+        <v>2</v>
+      </c>
+      <c r="G904" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delfines Del Este</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>Delfines del Este</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>Atlántico</t>
+        </is>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F905" t="n">
+        <v>0</v>
+      </c>
+      <c r="G905" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delfines Del Este</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Atl. San Cristóbal</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>Delfines del Este</t>
+        </is>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F906" t="n">
+        <v>1</v>
+      </c>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trafalgar Southstars </t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>Trafalgar Southstars</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>Conaree Fireball</t>
+        </is>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F907" t="n">
+        <v>0</v>
+      </c>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trafalgar Southstars </t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>Challengers</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>Trafalgar Southstars</t>
+        </is>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F908" t="n">
+        <v>11</v>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trafalgar Southstars </t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>Dieppe Bay</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>Trafalgar Southstars</t>
+        </is>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F909" t="n">
+        <v>2</v>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trafalgar Southstars </t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>Trafalgar Southstars</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>Mantab United</t>
+        </is>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F910" t="n">
+        <v>1</v>
+      </c>
+      <c r="G910" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trafalgar Southstars </t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>Old Road Jets</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>Trafalgar Southstars</t>
+        </is>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F911" t="n">
+        <v>4</v>
+      </c>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trafalgar Southstars </t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>Bath United</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>Trafalgar Southstars</t>
+        </is>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F912" t="n">
+        <v>1</v>
+      </c>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trafalgar Southstars </t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>Trafalgar Southstars</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>Rams Village Superstars</t>
+        </is>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F913" t="n">
+        <v>8</v>
+      </c>
+      <c r="G913" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trafalgar Southstars </t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>Conaree</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>Trafalgar Southstars</t>
+        </is>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F914" t="n">
+        <v>0</v>
+      </c>
+      <c r="G914" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trafalgar Southstars </t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>Cayon Rockets</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>Trafalgar Southstars</t>
+        </is>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F915" t="n">
+        <v>1</v>
+      </c>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He Garden Hotspurs</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F916" t="n">
+        <v>1</v>
+      </c>
+      <c r="G916" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He Garden Hotspurs</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F917" t="n">
+        <v>1</v>
+      </c>
+      <c r="G917" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He Garden Hotspurs</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F918" t="n">
+        <v>0</v>
+      </c>
+      <c r="G918" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He Garden Hotspurs</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F919" t="n">
+        <v>2</v>
+      </c>
+      <c r="G919" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He Garden Hotspurs</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F920" t="n">
+        <v>1</v>
+      </c>
+      <c r="G920" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He Garden Hotspurs</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>Celta</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F921" t="n">
+        <v>0</v>
+      </c>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He Garden Hotspurs</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F922" t="n">
+        <v>4</v>
+      </c>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He Garden Hotspurs</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F923" t="n">
+        <v>0</v>
+      </c>
+      <c r="G923" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pioneros de Cancun </t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>Pioneros</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>Irapuato</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F924" t="n">
+        <v>0</v>
+      </c>
+      <c r="G924" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pioneros de Cancun </t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>Pioneros</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>Catedraticos Elite</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F925" t="n">
+        <v>0</v>
+      </c>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pioneros de Cancun </t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>Pioneros</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>Aguacateros de Peribán</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F926" t="n">
+        <v>1</v>
+      </c>
+      <c r="G926" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pioneros de Cancun </t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>Inter de Querétaro</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>Pioneros</t>
+        </is>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F927" t="n">
+        <v>0</v>
+      </c>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pioneros de Cancun </t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>Pioneros</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>Racing FC Porto Palmeiras</t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F928" t="n">
+        <v>2</v>
+      </c>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pioneros de Cancun </t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>Pioneros</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>Cafetaleros</t>
+        </is>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F929" t="n">
+        <v>4</v>
+      </c>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pioneros de Cancun </t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>Pioneros</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>Escorpiones FC</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F930" t="n">
+        <v>1</v>
+      </c>
+      <c r="G930" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pioneros de Cancun </t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>Montañeses</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>Pioneros</t>
+        </is>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F931" t="n">
+        <v>0</v>
+      </c>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampico Madero FC</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>CDS Tampico Madero</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>Cafetaleros</t>
+        </is>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F932" t="n">
+        <v>1</v>
+      </c>
+      <c r="G932" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampico Madero FC</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>Escorpiones FC</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>CDS Tampico Madero</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F933" t="n">
+        <v>0</v>
+      </c>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampico Madero FC</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>CDS Tampico Madero</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>Montañeses</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F934" t="n">
+        <v>1</v>
+      </c>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampico Madero FC</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>CDS Tampico Madero</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>Reboceros de La Piedad</t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F935" t="n">
+        <v>2</v>
+      </c>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampico Madero FC</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>Lobos ULMX</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>CDS Tampico Madero</t>
+        </is>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F936" t="n">
+        <v>0</v>
+      </c>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampico Madero FC</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>CDS Tampico Madero</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>CA San Juan De Aragon</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F937" t="n">
+        <v>0</v>
+      </c>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampico Madero FC</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>CD Zap</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>CDS Tampico Madero</t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F938" t="n">
+        <v>2</v>
+      </c>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampico Madero FC</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>CDS Tampico Madero</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>CA San Juan De Aragon</t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr"/>
+      <c r="F939" t="inlineStr"/>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reboceros de La Piedad </t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>Reboceros de La Piedad</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>Sporting Canamy</t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F940" t="n">
+        <v>0</v>
+      </c>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reboceros de La Piedad </t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>Montañeses</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>Reboceros de La Piedad</t>
+        </is>
+      </c>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F941" t="n">
+        <v>2</v>
+      </c>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reboceros de La Piedad </t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Reboceros de La Piedad</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>Deportiva Venados</t>
+        </is>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F942" t="n">
+        <v>1</v>
+      </c>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reboceros de La Piedad </t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>CDS Tampico Madero</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>Reboceros de La Piedad</t>
+        </is>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F943" t="n">
+        <v>2</v>
+      </c>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reboceros de La Piedad </t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>Reboceros de La Piedad</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>Irapuato</t>
+        </is>
+      </c>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F944" t="n">
+        <v>1</v>
+      </c>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reboceros de La Piedad </t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>Lobos ULMX</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>Reboceros de La Piedad</t>
+        </is>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F945" t="n">
+        <v>3</v>
+      </c>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reboceros de La Piedad </t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>Reboceros de La Piedadx2</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>Catedraticos Elite</t>
+        </is>
+      </c>
+      <c r="F946" t="inlineStr"/>
+      <c r="G946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reboceros de La Piedad </t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>CA San Juan De Aragon</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>Reboceros de La Piedad</t>
+        </is>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F947" t="n">
+        <v>3</v>
+      </c>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aguacateros de Periban FC</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>Aguacateros de Peribán</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>CA San Juan De Aragon</t>
+        </is>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F948" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aguacateros de Periban FC</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>CD Zap</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>Aguacateros de Peribán</t>
+        </is>
+      </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F949" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aguacateros de Periban FC</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>Pioneros</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>Aguacateros de Peribán</t>
+        </is>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F950" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aguacateros de Periban FC</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>Aguacateros de Peribán</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>Inter Playa del Carmen</t>
+        </is>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F951" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aguacateros de Periban FC</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>Sporting Canamy</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>Aguacateros de Peribán</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F952" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aguacateros de Periban FC</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>Aguacateros de Peribán</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>Deportiva Venados</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F953" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aguacateros de Periban FC</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>Irapuato</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>Aguacateros de Peribán</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F954" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>my league</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aguacateros de Periban FC</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>Aguacateros de Peribán</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>Catedraticos Elitex2</t>
+        </is>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+      <c r="F955" t="inlineStr"/>
+      <c r="G955" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
